--- a/document/wh_product_list.xlsx
+++ b/document/wh_product_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="wh_product_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wh_product_list!$B$1:$B$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wh_product_list!$B$1:$B$164</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>product_id</t>
   </si>
@@ -864,12 +864,6 @@
     <t>172</t>
   </si>
   <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>ແລມໂບ້ ງົວ</t>
-  </si>
-  <si>
     <t>174</t>
   </si>
   <si>
@@ -904,12 +898,6 @@
   </si>
   <si>
     <t>ຕົ້ມຍຳກຸ້ງ</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>ທອດກຸ້ງ</t>
   </si>
   <si>
     <t>1710430696</t>
@@ -1399,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1407,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1433,10 +1421,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1446,7 +1434,7 @@
       <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D2">
@@ -1468,7 +1456,7 @@
       <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D3">
@@ -1490,7 +1478,7 @@
       <c r="B4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D4">
@@ -1512,7 +1500,7 @@
       <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D5">
@@ -1534,7 +1522,7 @@
       <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>116</v>
       </c>
       <c r="D6">
@@ -1952,7 +1940,7 @@
       <c r="B25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D25">
@@ -1974,7 +1962,7 @@
       <c r="B26" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D26">
@@ -1996,7 +1984,7 @@
       <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D27">
@@ -2367,10 +2355,10 @@
       <c r="A44">
         <v>1337</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="16" t="s">
         <v>194</v>
       </c>
       <c r="D44">
@@ -2389,10 +2377,10 @@
       <c r="A45">
         <v>1338</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D45">
@@ -2411,10 +2399,10 @@
       <c r="A46">
         <v>1339</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D46">
@@ -2433,10 +2421,10 @@
       <c r="A47">
         <v>1340</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D47">
@@ -2455,10 +2443,10 @@
       <c r="A48">
         <v>1342</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="16" t="s">
         <v>202</v>
       </c>
       <c r="D48">
@@ -2499,10 +2487,10 @@
       <c r="A50">
         <v>1344</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D50">
@@ -2521,10 +2509,10 @@
       <c r="A51">
         <v>1345</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D51">
@@ -2543,10 +2531,10 @@
       <c r="A52">
         <v>1346</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D52">
@@ -2565,10 +2553,10 @@
       <c r="A53">
         <v>1336</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="16" t="s">
         <v>192</v>
       </c>
       <c r="D53">
@@ -2587,10 +2575,10 @@
       <c r="A54">
         <v>1350</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="16" t="s">
         <v>218</v>
       </c>
       <c r="D54">
@@ -3097,7 +3085,7 @@
         <v>233</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D77">
         <v>55000</v>
@@ -3885,10 +3873,10 @@
       <c r="A113">
         <v>1356</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="16" t="s">
         <v>226</v>
       </c>
       <c r="D113">
@@ -3929,10 +3917,10 @@
       <c r="A115">
         <v>1333</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D115">
@@ -4114,7 +4102,7 @@
         <v>20000</v>
       </c>
       <c r="H123" s="9" t="str">
-        <f t="shared" ref="H123:H151" si="5">"update wh_product_list set product_price='"&amp;E123&amp;"' where product_id='"&amp;A123&amp;"';"</f>
+        <f t="shared" ref="H123:H149" si="5">"update wh_product_list set product_price='"&amp;E123&amp;"' where product_id='"&amp;A123&amp;"';"</f>
         <v>update wh_product_list set product_price='20000' where product_id='1238';</v>
       </c>
     </row>
@@ -4187,10 +4175,10 @@
       <c r="A127">
         <v>1334</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D127">
@@ -4209,10 +4197,10 @@
       <c r="A128">
         <v>1347</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="16" t="s">
         <v>212</v>
       </c>
       <c r="D128">
@@ -4231,10 +4219,10 @@
       <c r="A129">
         <v>1348</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D129">
@@ -4253,10 +4241,10 @@
       <c r="A130">
         <v>1349</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D130">
@@ -4275,10 +4263,10 @@
       <c r="A131">
         <v>1351</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D131">
@@ -4297,10 +4285,10 @@
       <c r="A132">
         <v>1352</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="16" t="s">
         <v>222</v>
       </c>
       <c r="D132">
@@ -4385,10 +4373,10 @@
       <c r="A136">
         <v>1380</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="16" t="s">
         <v>271</v>
       </c>
       <c r="D136">
@@ -4452,10 +4440,10 @@
         <v>1394</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D139">
         <v>40000</v>
@@ -4473,16 +4461,16 @@
         <v>1401</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D140">
         <v>25000</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" ref="E140:E152" si="7">(D140*0.2)+D140</f>
+        <f t="shared" ref="E140:E150" si="7">(D140*0.2)+D140</f>
         <v>30000</v>
       </c>
       <c r="H140" t="str">
@@ -4495,10 +4483,10 @@
         <v>1403</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D141">
         <v>20000</v>
@@ -4517,10 +4505,10 @@
         <v>1404</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" t="s">
-        <v>301</v>
+        <v>296</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D142">
         <v>69000</v>
@@ -4561,10 +4549,10 @@
         <v>1405</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D144" s="9">
         <v>36000</v>
@@ -4580,12 +4568,12 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B145" t="s">
         <v>278</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="16" t="s">
         <v>279</v>
       </c>
       <c r="D145">
@@ -4597,56 +4585,56 @@
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='90000' where product_id='1388';</v>
+        <v>update wh_product_list set product_price='90000' where product_id='1389';</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>1389</v>
-      </c>
-      <c r="B146" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D146">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="E146" s="1">
         <f t="shared" si="7"/>
-        <v>90000</v>
+        <v>42000</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='90000' where product_id='1389';</v>
+        <v>update wh_product_list set product_price='42000' where product_id='1390';</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
-      </c>
-      <c r="C147" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="D147">
-        <v>35000</v>
+        <v>69000</v>
       </c>
       <c r="E147" s="1">
         <f t="shared" si="7"/>
-        <v>42000</v>
+        <v>82800</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='42000' where product_id='1390';</v>
+        <v>update wh_product_list set product_price='82800' where product_id='1395';</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B148" t="s">
         <v>286</v>
@@ -4655,48 +4643,48 @@
         <v>287</v>
       </c>
       <c r="D148">
-        <v>69000</v>
+        <v>15000</v>
       </c>
       <c r="E148" s="1">
         <f t="shared" si="7"/>
-        <v>82800</v>
+        <v>18000</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='82800' where product_id='1395';</v>
+        <v>update wh_product_list set product_price='18000' where product_id='1396';</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B149" t="s">
         <v>288</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D149">
-        <v>15000</v>
+        <v>85000</v>
       </c>
       <c r="E149" s="1">
         <f t="shared" si="7"/>
-        <v>18000</v>
+        <v>102000</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='18000' where product_id='1396';</v>
+        <v>update wh_product_list set product_price='102000' where product_id='1397';</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>1397</v>
-      </c>
-      <c r="B150" t="s">
-        <v>290</v>
-      </c>
-      <c r="C150" t="s">
-        <v>291</v>
+        <v>1402</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="D150">
         <v>85000</v>
@@ -4706,108 +4694,96 @@
         <v>102000</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='102000' where product_id='1397';</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151">
-        <v>1398</v>
-      </c>
-      <c r="B151" t="s">
-        <v>292</v>
-      </c>
-      <c r="C151" t="s">
-        <v>293</v>
-      </c>
-      <c r="D151">
-        <v>120000</v>
-      </c>
-      <c r="E151" s="1">
-        <f t="shared" si="7"/>
-        <v>144000</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="5"/>
-        <v>update wh_product_list set product_price='144000' where product_id='1398';</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152">
-        <v>1402</v>
-      </c>
-      <c r="B152" t="s">
-        <v>296</v>
-      </c>
-      <c r="C152" t="s">
-        <v>297</v>
-      </c>
-      <c r="D152">
-        <v>85000</v>
-      </c>
-      <c r="E152" s="1">
-        <f t="shared" si="7"/>
-        <v>102000</v>
-      </c>
-      <c r="H152" t="str">
-        <f>"update wh_product_list set product_price='"&amp;E152&amp;"' where product_id='"&amp;A152&amp;"';"</f>
+        <f>"update wh_product_list set product_price='"&amp;E150&amp;"' where product_id='"&amp;A150&amp;"';"</f>
         <v>update wh_product_list set product_price='102000' where product_id='1402';</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="9" customFormat="1" ht="19.5">
+      <c r="B151" s="5">
+        <v>184</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" s="13"/>
+      <c r="E151" s="14">
+        <v>28000</v>
+      </c>
+      <c r="H151" s="9" t="str">
+        <f>"update wh_product_list set product_price='"&amp;E151&amp;"' where product_id='"&amp;B151&amp;"';"</f>
+        <v>update wh_product_list set product_price='28000' where product_id='184';</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="9" customFormat="1" ht="19.5">
+      <c r="B152" s="5">
+        <v>185</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" s="13"/>
+      <c r="E152" s="14">
+        <v>28000</v>
+      </c>
+      <c r="H152" s="9" t="str">
+        <f t="shared" ref="H152:H164" si="8">"update wh_product_list set product_price='"&amp;E152&amp;"' where product_id='"&amp;B152&amp;"';"</f>
+        <v>update wh_product_list set product_price='28000' where product_id='185';</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="9" customFormat="1" ht="19.5">
       <c r="B153" s="5">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="14">
         <v>28000</v>
       </c>
       <c r="H153" s="9" t="str">
-        <f>"update wh_product_list set product_price='"&amp;E153&amp;"' where product_id='"&amp;B153&amp;"';"</f>
-        <v>update wh_product_list set product_price='28000' where product_id='184';</v>
+        <f t="shared" si="8"/>
+        <v>update wh_product_list set product_price='28000' where product_id='186';</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="9" customFormat="1" ht="19.5">
       <c r="B154" s="5">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D154" s="13"/>
       <c r="E154" s="14">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="H154" s="9" t="str">
-        <f t="shared" ref="H154:H166" si="8">"update wh_product_list set product_price='"&amp;E154&amp;"' where product_id='"&amp;B154&amp;"';"</f>
-        <v>update wh_product_list set product_price='28000' where product_id='185';</v>
+        <f t="shared" si="8"/>
+        <v>update wh_product_list set product_price='18000' where product_id='187';</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="9" customFormat="1" ht="19.5">
       <c r="B155" s="5">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="14">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="H155" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='28000' where product_id='186';</v>
+        <v>update wh_product_list set product_price='18000' where product_id='188';</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="9" customFormat="1" ht="19.5">
       <c r="B156" s="5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D156" s="13"/>
       <c r="E156" s="14">
@@ -4815,15 +4791,15 @@
       </c>
       <c r="H156" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='18000' where product_id='187';</v>
+        <v>update wh_product_list set product_price='18000' where product_id='189';</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="9" customFormat="1" ht="19.5">
-      <c r="B157" s="5">
-        <v>188</v>
+      <c r="B157" s="9">
+        <v>190</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="14">
@@ -4831,111 +4807,111 @@
       </c>
       <c r="H157" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='18000' where product_id='188';</v>
+        <v>update wh_product_list set product_price='18000' where product_id='190';</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="9" customFormat="1" ht="19.5">
       <c r="B158" s="5">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="14">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="H158" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='18000' where product_id='189';</v>
+        <v>update wh_product_list set product_price='10000' where product_id='191';</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="9" customFormat="1" ht="19.5">
-      <c r="B159" s="9">
-        <v>190</v>
+      <c r="B159" s="5">
+        <v>192</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="14">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="H159" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='18000' where product_id='190';</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="9" customFormat="1" ht="19.5">
-      <c r="B160" s="5">
-        <v>191</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D160" s="13"/>
-      <c r="E160" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H160" s="9" t="str">
+        <v>update wh_product_list set product_price='36000' where product_id='192';</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="19.5">
+      <c r="B160">
+        <v>193</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="6">
+        <v>415000</v>
+      </c>
+      <c r="H160" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='10000' where product_id='191';</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" s="9" customFormat="1" ht="19.5">
-      <c r="B161" s="5">
-        <v>192</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="14">
-        <v>36000</v>
-      </c>
-      <c r="H161" s="9" t="str">
+        <v>update wh_product_list set product_price='415000' where product_id='193';</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="19.5">
+      <c r="B161">
+        <v>194</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="6">
+        <v>450000</v>
+      </c>
+      <c r="H161" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='36000' where product_id='192';</v>
+        <v>update wh_product_list set product_price='450000' where product_id='194';</v>
       </c>
     </row>
     <row r="162" spans="2:8" ht="19.5">
       <c r="B162">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="6">
-        <v>415000</v>
+        <v>594000</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='415000' where product_id='193';</v>
+        <v>update wh_product_list set product_price='594000' where product_id='195';</v>
       </c>
     </row>
     <row r="163" spans="2:8" ht="19.5">
       <c r="B163">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="6">
-        <v>450000</v>
+        <v>594000</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='450000' where product_id='194';</v>
+        <v>update wh_product_list set product_price='594000' where product_id='196';</v>
       </c>
     </row>
     <row r="164" spans="2:8" ht="19.5">
       <c r="B164">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="6">
@@ -4943,43 +4919,11 @@
       </c>
       <c r="H164" t="str">
         <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='594000' where product_id='195';</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" ht="19.5">
-      <c r="B165">
-        <v>196</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="6">
-        <v>594000</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="8"/>
-        <v>update wh_product_list set product_price='594000' where product_id='196';</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" ht="19.5">
-      <c r="B166">
-        <v>197</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="6">
-        <v>594000</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="8"/>
         <v>update wh_product_list set product_price='594000' where product_id='197';</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B166"/>
+  <autoFilter ref="B1:B164"/>
   <sortState ref="A2:D174">
     <sortCondition ref="B1:B174"/>
   </sortState>

--- a/document/wh_product_list.xlsx
+++ b/document/wh_product_list.xlsx
@@ -1387,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,7 +1431,7 @@
       <c r="A2">
         <v>1306</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -1453,7 +1453,7 @@
       <c r="A3">
         <v>1305</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1475,7 +1475,7 @@
       <c r="A4">
         <v>1294</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1497,7 +1497,7 @@
       <c r="A5">
         <v>1293</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1519,7 +1519,7 @@
       <c r="A6">
         <v>1292</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -1937,7 +1937,7 @@
       <c r="A25">
         <v>1299</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -1959,7 +1959,7 @@
       <c r="A26">
         <v>1296</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -1981,7 +1981,7 @@
       <c r="A27">
         <v>1295</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -2003,10 +2003,10 @@
       <c r="A28">
         <v>1297</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D28">
@@ -2025,10 +2025,10 @@
       <c r="A29">
         <v>1298</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D29">
@@ -2597,10 +2597,10 @@
       <c r="A55">
         <v>1283</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D55">
@@ -2641,10 +2641,10 @@
       <c r="A57">
         <v>1285</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D57">
@@ -2663,10 +2663,10 @@
       <c r="A58">
         <v>1288</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D58">
@@ -2685,10 +2685,10 @@
       <c r="A59">
         <v>1290</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="16" t="s">
         <v>112</v>
       </c>
       <c r="D59">
@@ -2707,10 +2707,10 @@
       <c r="A60">
         <v>1289</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D60">
@@ -2729,10 +2729,10 @@
       <c r="A61">
         <v>1291</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D61">
@@ -2773,10 +2773,10 @@
       <c r="A63">
         <v>1287</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="16" t="s">
         <v>106</v>
       </c>
       <c r="D63">
@@ -2795,10 +2795,10 @@
       <c r="A64">
         <v>1311</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D64">
@@ -2817,10 +2817,10 @@
       <c r="A65">
         <v>1308</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D65">
@@ -2839,10 +2839,10 @@
       <c r="A66">
         <v>1329</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="16" t="s">
         <v>178</v>
       </c>
       <c r="D66">
@@ -2883,10 +2883,10 @@
       <c r="A68">
         <v>1331</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D68">
@@ -2905,10 +2905,10 @@
       <c r="A69">
         <v>1354</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="16" t="s">
         <v>224</v>
       </c>
       <c r="D69">
@@ -2927,10 +2927,10 @@
       <c r="A70">
         <v>1332</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D70">
@@ -2949,10 +2949,10 @@
       <c r="A71">
         <v>1309</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D71">
@@ -2971,10 +2971,10 @@
       <c r="A72">
         <v>1310</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="16" t="s">
         <v>144</v>
       </c>
       <c r="D72">
@@ -3433,10 +3433,10 @@
       <c r="A93">
         <v>1244</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D93">
@@ -3455,10 +3455,10 @@
       <c r="A94">
         <v>1245</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D94">
@@ -3477,10 +3477,10 @@
       <c r="A95">
         <v>1246</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D95">
@@ -3499,10 +3499,10 @@
       <c r="A96">
         <v>1247</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D96">
@@ -3521,10 +3521,10 @@
       <c r="A97">
         <v>1248</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D97">
@@ -3543,10 +3543,10 @@
       <c r="A98">
         <v>1251</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D98">
@@ -3565,10 +3565,10 @@
       <c r="A99">
         <v>1249</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D99">
@@ -3587,10 +3587,10 @@
       <c r="A100">
         <v>1250</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D100">
@@ -3631,10 +3631,10 @@
       <c r="A102">
         <v>1319</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D102">
@@ -3653,10 +3653,10 @@
       <c r="A103">
         <v>1320</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="16" t="s">
         <v>160</v>
       </c>
       <c r="D103">
@@ -3675,10 +3675,10 @@
       <c r="A104">
         <v>1321</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D104">
@@ -3697,10 +3697,10 @@
       <c r="A105">
         <v>1322</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D105">
@@ -3719,10 +3719,10 @@
       <c r="A106">
         <v>1323</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="16" t="s">
         <v>166</v>
       </c>
       <c r="D106">
@@ -3763,10 +3763,10 @@
       <c r="A108">
         <v>1325</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D108">
@@ -4504,7 +4504,7 @@
       <c r="A142">
         <v>1404</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="5" t="s">
         <v>296</v>
       </c>
       <c r="C142" s="16" t="s">
@@ -4570,7 +4570,7 @@
       <c r="A145">
         <v>1389</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="5" t="s">
         <v>278</v>
       </c>
       <c r="C145" s="16" t="s">
@@ -4614,7 +4614,7 @@
       <c r="A147">
         <v>1395</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="5" t="s">
         <v>284</v>
       </c>
       <c r="C147" s="16" t="s">
@@ -4658,7 +4658,7 @@
       <c r="A149">
         <v>1397</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C149" s="16" t="s">
